--- a/data/long_dif/P23_1-Urba-long_dif.xlsx
+++ b/data/long_dif/P23_1-Urba-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>25,19%</t>
+          <t>24,41%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,87%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>23,19%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>24,08%</t>
+          <t>19,01%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>24,49%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>28,98%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>21,59%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>25,57%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>26,25%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,05; 30,73</t>
+          <t>19,85; 29,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,2; 33,05</t>
+          <t>22,45; 34,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,87; 23,04</t>
+          <t>18,43; 28,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,79; 28,03</t>
+          <t>15,57; 22,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,88; 25,04</t>
+          <t>21,01; 28,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>22,0; 28,22</t>
+          <t>24,64; 34,19</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>18,83; 24,46</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>22,8; 29,14</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>22,94; 30,11</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>41,82%</t>
+          <t>41,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>50,09%</t>
+          <t>49,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>50,58%</t>
+          <t>50,35%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>48,84%</t>
+          <t>50,39%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>46,4%</t>
+          <t>49,33%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>49,44%</t>
+          <t>44,43%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>46,02%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>49,36%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>47,23%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,14; 47,14</t>
+          <t>35,93; 46,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>43,99; 54,71</t>
+          <t>42,85; 54,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,0; 55,61</t>
+          <t>43,95; 59,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>44,47; 52,9</t>
+          <t>45,72; 54,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>42,87; 50,33</t>
+          <t>45,22; 53,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>45,81; 52,52</t>
+          <t>39,44; 49,55</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>42,51; 49,93</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>46,17; 52,51</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>43,16; 52,33</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,98%</t>
+          <t>34,35%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>23,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>30,39%</t>
+          <t>26,46%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,08%</t>
+          <t>30,6%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>31,63%</t>
+          <t>26,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>25,63%</t>
+          <t>26,59%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>32,39%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>25,07%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>26,53%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>27,87; 39,58</t>
+          <t>28,92; 40,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,15; 28,66</t>
+          <t>20,11; 28,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>26,32; 35,15</t>
+          <t>20,69; 32,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>23,46; 32,11</t>
+          <t>26,84; 35,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>28,41; 35,34</t>
+          <t>22,63; 30,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,06; 28,81</t>
+          <t>22,07; 31,84</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>28,87; 36,23</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>22,42; 27,82</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>23,13; 30,17</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>29,21%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,41%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>30,52%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,84%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>29,86%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>20,99; 35,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,34; 34,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,23; 27,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,6; 34,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>20,24; 29,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,69; 32,87</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>40,99%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>29,58%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>42,14%</t>
+          <t>26,69%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>44,21%</t>
+          <t>21,33%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>41,57%</t>
+          <t>30,48%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>45,9%</t>
+          <t>28,06%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>22,84%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>30,03%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>27,37%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>34,58; 47,23</t>
+          <t>19,45; 31,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>42,18; 53,45</t>
+          <t>24,92; 34,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>36,91; 47,79</t>
+          <t>20,67; 32,27</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>39,64; 49,0</t>
+          <t>17,07; 27,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>37,18; 45,77</t>
+          <t>26,28; 34,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>42,49; 49,58</t>
+          <t>23,36; 33,2</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>19,31; 27,07</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>27,04; 33,65</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>23,83; 31,4</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>32,69%</t>
+          <t>42,19%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,2%</t>
+          <t>47,64%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>36,45%</t>
+          <t>49,28%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>42,36%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>34,59%</t>
+          <t>43,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>48,07%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>42,28%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>45,64%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>48,68%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>26,45; 38,21</t>
+          <t>35,95; 48,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,97; 27,86</t>
+          <t>42,03; 53,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>31,24; 41,43</t>
+          <t>42,46; 56,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,53; 29,41</t>
+          <t>37,07; 47,87</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,95; 38,58</t>
+          <t>39,1; 47,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>20,96; 27,17</t>
+          <t>42,06; 53,98</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>38,06; 45,9</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>41,59; 49,11</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>44,33; 53,37</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>30,18%</t>
+          <t>33,44%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>29,47%</t>
+          <t>22,79%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>24,03%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>29,15%</t>
+          <t>36,31%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>23,33%</t>
+          <t>25,87%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>29,31%</t>
+          <t>23,86%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>34,89%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>24,33%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>23,95%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>19,96; 42,86</t>
+          <t>27,93; 39,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,62; 42,01</t>
+          <t>19,21; 27,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,12; 25,16</t>
+          <t>19,17; 30,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,03; 37,05</t>
+          <t>31,02; 41,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,99; 30,18</t>
+          <t>21,93; 30,22</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>22,64; 36,23</t>
+          <t>19,52; 28,76</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>30,68; 38,54</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>21,41; 27,42</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>20,25; 27,59</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>34,48%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>45,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>48,31%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>39,57%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>41,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>42,46%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>23,99; 46,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>34,34; 55,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>38,98; 58,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>30,88; 48,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>33,44; 48,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,49; 49,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>35,34%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>25,24%</t>
+          <t>28,86%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>35,35%</t>
+          <t>37,95%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>31,27%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>35,34%</t>
+          <t>29,38%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>28,22%</t>
+          <t>27,33%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>22,41%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>29,11%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>32,67%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>24,45; 49,36</t>
+          <t>18,09; 40,06</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>17,53; 34,73</t>
+          <t>19,89; 41,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>26,64; 45,62</t>
+          <t>22,56; 58,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>23,42; 39,65</t>
+          <t>10,0; 25,4</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>28,76; 44,61</t>
+          <t>22,0; 37,53</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>22,44; 34,77</t>
+          <t>19,26; 39,1</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>16,72; 29,19</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>23,79; 36,9</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>24,09; 47,02</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>26,25%</t>
+          <t>34,1%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>27,64%</t>
+          <t>45,92%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19,63%</t>
+          <t>33,54%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>48,42%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>22,87%</t>
+          <t>39,13%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>44,91%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>41,2%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>42,55%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>39,19%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>22,61; 30,46</t>
+          <t>22,83; 46,75</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>24,53; 31,25</t>
+          <t>35,59; 55,47</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>16,93; 22,6</t>
+          <t>19,23; 49,67</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>24,55; 29,71</t>
+          <t>39,04; 58,69</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>20,61; 25,42</t>
+          <t>30,28; 48,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>25,53; 29,83</t>
+          <t>33,31; 55,65</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>33,44; 49,25</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>35,52; 49,19</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>30,04; 48,54</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>40,59%</t>
+          <t>37,5%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>48,51%</t>
+          <t>25,22%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>47,07%</t>
+          <t>28,51%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>46,02%</t>
+          <t>35,26%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>43,91%</t>
+          <t>31,5%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>47,24%</t>
+          <t>27,76%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>36,39%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>28,33%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>28,14%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>36,62; 44,51</t>
+          <t>25,82; 56,16</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>44,67; 52,09</t>
+          <t>16,82; 33,64</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>43,53; 50,41</t>
+          <t>16,92; 42,12</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>42,96; 48,84</t>
+          <t>26,49; 45,3</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>41,45; 46,46</t>
+          <t>23,55; 41,09</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>45,1; 49,51</t>
+          <t>18,32; 39,15</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>29,03; 46,17</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>22,4; 34,81</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>19,69; 37,04</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>33,16%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>33,3%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>26,87%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>33,23%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +1859,495 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>29,52; 37,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>21,22; 26,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>30,47; 36,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>24,3; 29,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>30,83; 35,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,32; 27,3</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>24,88%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>28,13%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>26,39%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>19,6%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>27,33%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>28,44%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>22,18%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>27,72%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>27,44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>21,22; 28,66</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>25,02; 32,4</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>22,39; 30,64</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>17,06; 22,67</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>24,71; 29,7</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>25,58; 31,91</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>20,23; 24,37</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>25,53; 29,98</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>24,84; 30,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>40,74%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>48,27%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>47,88%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>47,07%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>46,0%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>45,87%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>43,98%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>47,11%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>46,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>36,95; 44,7</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>44,41; 52,25</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>43,17; 53,85</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>43,92; 50,45</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>43,13; 48,84</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>42,16; 49,34</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>41,06; 46,54</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>44,9; 49,83</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>43,88; 49,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>34,37%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>23,59%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>25,73%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>33,34%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>26,67%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>25,68%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>33,84%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>25,17%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>25,7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>30,73; 38,94</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>20,85; 26,5</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>21,83; 29,44</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>30,17; 36,43</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>24,03; 29,6</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>22,63; 28,95</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>31,53; 36,68</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>23,33; 27,22</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>23,35; 28,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
